--- a/SeleniumTestNG/src/test/resources/ExcelData/TestData.xlsx
+++ b/SeleniumTestNG/src/test/resources/ExcelData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11985" windowHeight="3390"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="3390"/>
   </bookViews>
   <sheets>
     <sheet name="Dummy" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Test classes</t>
   </si>
   <si>
     <t>Execute Test case</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>com.selenium-testng.ssh2</t>
+  </si>
+  <si>
+    <t>com.selenium-testng.ssh3</t>
+  </si>
+  <si>
+    <t>com.selenium-testng.ssh4</t>
+  </si>
+  <si>
+    <t>com.selenium-testng.ssh5</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>PracticeBasicSelenium.Interaction.Assignment</t>
   </si>
 </sst>
 </file>
@@ -352,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -364,12 +397,64 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
